--- a/InvoiceExtractor_Performer/Data/StatusReport.xlsx
+++ b/InvoiceExtractor_Performer/Data/StatusReport.xlsx
@@ -16,6 +16,7 @@
     <x:sheet name="Template" sheetId="2" r:id="rId1"/>
     <x:sheet name="07.01.2025" sheetId="5" r:id="rId2"/>
     <x:sheet name="22.04.2025" sheetId="6" r:id="rId6"/>
+    <x:sheet name="28.04.2025" sheetId="7" r:id="rId7"/>
   </x:sheets>
   <x:definedNames/>
   <x:calcPr calcId="162913"/>
@@ -157,6 +158,12 @@
   </x:si>
   <x:si>
     <x:t>04/22/2025 17:35:23</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestQueueItem04/06/2025 19:30:49</x:t>
+  </x:si>
+  <x:si>
+    <x:t>04/28/2025 00:11:35</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -857,4 +864,46 @@
   <x:headerFooter/>
   <x:tableParts count="0"/>
 </x:worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1:C2"/>
+  <x:sheetViews>
+    <x:sheetView workbookViewId="0"/>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:sheetData>
+    <x:row r="1" spans="1:3">
+      <x:c r="A1" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B1" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C1" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:3">
+      <x:c r="A2" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="B2" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="C2" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter/>
+  <x:tableParts count="0"/>
+</x:worksheet>
 </file>